--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H2">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I2">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J2">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.1384628529913333</v>
+        <v>0.01489361903333333</v>
       </c>
       <c r="R2">
-        <v>1.246165676922</v>
+        <v>0.1340425713</v>
       </c>
       <c r="S2">
-        <v>0.1207054366965774</v>
+        <v>0.01482803277969397</v>
       </c>
       <c r="T2">
-        <v>0.1207054366965774</v>
+        <v>0.01482803277969397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H3">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I3">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J3">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.4003962539513333</v>
+        <v>0.1532937523027778</v>
       </c>
       <c r="R3">
-        <v>3.603566285562</v>
+        <v>1.379643770725</v>
       </c>
       <c r="S3">
-        <v>0.3490467200462382</v>
+        <v>0.1526187005979263</v>
       </c>
       <c r="T3">
-        <v>0.3490467200462383</v>
+        <v>0.1526187005979263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H4">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I4">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J4">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.113808845718</v>
+        <v>0.01580448323055555</v>
       </c>
       <c r="R4">
-        <v>1.024279611462</v>
+        <v>0.142240349075</v>
       </c>
       <c r="S4">
-        <v>0.09921322669253707</v>
+        <v>0.01573488585173994</v>
       </c>
       <c r="T4">
-        <v>0.09921322669253707</v>
+        <v>0.01573488585173994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H5">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I5">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J5">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>0.1048961579827778</v>
+        <v>0.038901450184</v>
       </c>
       <c r="R5">
-        <v>0.944065421845</v>
+        <v>0.350113051656</v>
       </c>
       <c r="S5">
-        <v>0.09144356254089948</v>
+        <v>0.03873014189600118</v>
       </c>
       <c r="T5">
-        <v>0.09144356254089947</v>
+        <v>0.03873014189600118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H6">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I6">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J6">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +809,22 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
-        <v>0.3033306609161111</v>
+        <v>0.4003962539513333</v>
       </c>
       <c r="R6">
-        <v>2.729975948245</v>
+        <v>3.603566285562</v>
       </c>
       <c r="S6">
-        <v>0.2644294776421539</v>
+        <v>0.3986330498429745</v>
       </c>
       <c r="T6">
-        <v>0.2644294776421539</v>
+        <v>0.3986330498429745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.366566</v>
+      </c>
+      <c r="H7">
+        <v>1.099698</v>
+      </c>
+      <c r="I7">
+        <v>0.4784619922885553</v>
+      </c>
+      <c r="J7">
+        <v>0.4784619922885552</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1126143333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.337843</v>
+      </c>
+      <c r="O7">
+        <v>0.08589773317834044</v>
+      </c>
+      <c r="P7">
+        <v>0.08589773317834046</v>
+      </c>
+      <c r="Q7">
+        <v>0.04128058571266666</v>
+      </c>
+      <c r="R7">
+        <v>0.371525271414</v>
+      </c>
+      <c r="S7">
+        <v>0.0410988005495795</v>
+      </c>
+      <c r="T7">
+        <v>0.0410988005495795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.12712</v>
+      </c>
+      <c r="H8">
+        <v>0.38136</v>
+      </c>
+      <c r="I8">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J8">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.106124</v>
+      </c>
+      <c r="N8">
+        <v>0.318372</v>
+      </c>
+      <c r="O8">
+        <v>0.08094716512538251</v>
+      </c>
+      <c r="P8">
+        <v>0.08094716512538253</v>
+      </c>
+      <c r="Q8">
+        <v>0.01349048288</v>
+      </c>
+      <c r="R8">
+        <v>0.12141434592</v>
+      </c>
+      <c r="S8">
+        <v>0.01343107554388479</v>
+      </c>
+      <c r="T8">
+        <v>0.01343107554388479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.12712</v>
+      </c>
+      <c r="H9">
+        <v>0.38136</v>
+      </c>
+      <c r="I9">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J9">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.276869</v>
+      </c>
+      <c r="O9">
+        <v>0.8331551016962769</v>
+      </c>
+      <c r="P9">
+        <v>0.833155101696277</v>
+      </c>
+      <c r="Q9">
+        <v>0.1388518624266667</v>
+      </c>
+      <c r="R9">
+        <v>1.24966676184</v>
+      </c>
+      <c r="S9">
+        <v>0.1382404077193164</v>
+      </c>
+      <c r="T9">
+        <v>0.1382404077193164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.12712</v>
+      </c>
+      <c r="H10">
+        <v>0.38136</v>
+      </c>
+      <c r="I10">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J10">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1126143333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.337843</v>
+      </c>
+      <c r="O10">
+        <v>0.08589773317834044</v>
+      </c>
+      <c r="P10">
+        <v>0.08589773317834046</v>
+      </c>
+      <c r="Q10">
+        <v>0.01431553405333333</v>
+      </c>
+      <c r="R10">
+        <v>0.12883980648</v>
+      </c>
+      <c r="S10">
+        <v>0.0142524934823812</v>
+      </c>
+      <c r="T10">
+        <v>0.0142524934823812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.396319</v>
+      </c>
+      <c r="I11">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J11">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.106124</v>
+      </c>
+      <c r="N11">
+        <v>0.318372</v>
+      </c>
+      <c r="O11">
+        <v>0.08094716512538251</v>
+      </c>
+      <c r="P11">
+        <v>0.08094716512538253</v>
+      </c>
+      <c r="Q11">
+        <v>0.01401965251866667</v>
+      </c>
+      <c r="R11">
+        <v>0.126176872668</v>
+      </c>
+      <c r="S11">
+        <v>0.01395791490580258</v>
+      </c>
+      <c r="T11">
+        <v>0.01395791490580258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.2777016666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.833105</v>
-      </c>
-      <c r="I7">
-        <v>0.4310346165646473</v>
-      </c>
-      <c r="J7">
-        <v>0.4310346165646473</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3104730000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.9314190000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="P7">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="Q7">
-        <v>0.08621886955500002</v>
-      </c>
-      <c r="R7">
-        <v>0.7759698259950001</v>
-      </c>
-      <c r="S7">
-        <v>0.07516157638159394</v>
-      </c>
-      <c r="T7">
-        <v>0.07516157638159394</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.396319</v>
+      </c>
+      <c r="I12">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J12">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.092289666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.276869</v>
+      </c>
+      <c r="O12">
+        <v>0.8331551016962769</v>
+      </c>
+      <c r="P12">
+        <v>0.833155101696277</v>
+      </c>
+      <c r="Q12">
+        <v>0.1442983828012222</v>
+      </c>
+      <c r="R12">
+        <v>1.298685445211</v>
+      </c>
+      <c r="S12">
+        <v>0.1436629435360597</v>
+      </c>
+      <c r="T12">
+        <v>0.1436629435360597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.396319</v>
+      </c>
+      <c r="I13">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J13">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1126143333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.337843</v>
+      </c>
+      <c r="O13">
+        <v>0.08589773317834044</v>
+      </c>
+      <c r="P13">
+        <v>0.08589773317834046</v>
+      </c>
+      <c r="Q13">
+        <v>0.01487706665744444</v>
+      </c>
+      <c r="R13">
+        <v>0.133893599917</v>
+      </c>
+      <c r="S13">
+        <v>0.0148115532946398</v>
+      </c>
+      <c r="T13">
+        <v>0.0148115532946398</v>
       </c>
     </row>
   </sheetData>
